--- a/CRIS_single-sample/additional files/LSVM Forest plots paper.xlsx
+++ b/CRIS_single-sample/additional files/LSVM Forest plots paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\GitHub\CRIS_single-sample\CRIS_single-sample\additional files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\GitHub\CRIS_single-sample - AFTER DEBUG -MEDIA-0.3166MEDIA\CRIS_single-sample\additional files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD898F-542D-4722-8D99-5FBCFB00FD7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CE098-E8CF-4A10-A4D0-3B7E9197C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15252" yWindow="-3540" windowWidth="23256" windowHeight="12720" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="single-label" sheetId="2" r:id="rId1"/>
@@ -108,10 +108,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,6 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -281,7 +299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C82FA5A5-75DB-4DB5-B1B4-B54A428910CC}" type="CELLRANGE">
+                    <a:fld id="{27082303-3CF1-41C3-AB0D-D91D3421E186}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -556,7 +574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{811865E8-9156-4F32-BB45-B22CE80A720B}" type="CELLRANGE">
+                    <a:fld id="{8868150C-F231-43F1-8FA1-10A09708442A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -839,7 +857,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{817B204E-6937-42E5-9EAA-560254DC4793}" type="CELLRANGE">
+                    <a:fld id="{E258A50C-367B-416E-92A8-9FB7E66EC2B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -1143,7 +1161,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E8619D5-9969-4A1A-AB13-EA73C7720313}" type="CELLRANGE">
+                    <a:fld id="{B0097D0D-DD57-41B1-8879-C5FD6CA1728A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -1429,7 +1447,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{299CFFC2-126B-4FDD-8402-35C888B805ED}" type="CELLRANGE">
+                    <a:fld id="{67C2FAD3-1B11-4DAD-8F68-54610B4A357E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -2223,7 +2241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DFB703D-1846-460C-86F8-A19487368BA2}" type="CELLRANGE">
+                    <a:fld id="{F3945678-7D53-4879-927C-68F0ECE5C067}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2370,13 +2388,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6980000000000004</c:v>
+                  <c:v>8.5389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1230000000000002</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.192999999999998</c:v>
+                  <c:v>50.332999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,7 +2425,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.000412</c:v>
+                    <c:v>0.000524</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2497,7 +2515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3C2E41F-80C8-4578-9879-B15E0E59B07C}" type="CELLRANGE">
+                    <a:fld id="{CBB72531-534E-4EDD-A0D8-A30D258BA16F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -2639,13 +2657,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2090000000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54700000000000004</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6520000000000001</c:v>
+                  <c:v>2.8370000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,7 +2694,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.71</c:v>
+                    <c:v>0.569</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2781,7 +2799,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{84803A81-68BE-4A50-BAAA-E56459079B9D}" type="CELLRANGE">
+                    <a:fld id="{7B60D9BB-1F3F-4AB7-BE8C-0095D88E7D74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -2958,13 +2976,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,7 +3013,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0000364</c:v>
+                    <c:v>0.0000113</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3085,7 +3103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1918A9E-5FB8-405E-88BE-B15A8A287F8A}" type="CELLRANGE">
+                    <a:fld id="{42F0D577-6830-4F17-94B0-01A47267363E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3229,13 +3247,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.405000000000001</c:v>
+                  <c:v>55.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9989999999999997</c:v>
+                  <c:v>8.2650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.957999999999998</c:v>
+                  <c:v>2373.6289999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,7 +3284,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>2.49E-08</c:v>
+                    <c:v>1.28E-09</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3361,19 +3379,19 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{78380AEE-AB99-4A48-92BA-3D1F610C0A13}" type="CELLRANGE">
+                    <a:fld id="{B09FDFFC-2182-4BDF-93B6-B9FEE57BDBAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200">
                           <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
+                            <a:sysClr val="windowText" lastClr="000000"/>
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
@@ -3399,7 +3417,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -3496,7 +3514,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3541,13 +3559,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.593</c:v>
+                  <c:v>3.0150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>1.0580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.375</c:v>
+                  <c:v>8.7219999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,7 +3596,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0473</c:v>
+                    <c:v>0.0222</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3811,13 +3829,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0139999999999998</c:v>
+                  <c:v>4.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.22</c:v>
+                  <c:v>13.378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,7 +3866,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.000699</c:v>
+                    <c:v>0.00306</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4160,7 +4178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA6E0179-54B3-43B0-BAE6-CEBECD616D6E}" type="CELLRANGE">
+                    <a:fld id="{3251676F-CDBD-4869-9B81-B58ADB1F4E15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4306,13 +4324,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.5039999999999996</c:v>
+                  <c:v>6.2469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0720000000000001</c:v>
+                  <c:v>1.5920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.234000000000002</c:v>
+                  <c:v>35.970999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4343,7 +4361,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.000481</c:v>
+                    <c:v>0.00446</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4433,7 +4451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FBCD1F0-9DCC-4B51-BA90-68F3B890FB60}" type="CELLRANGE">
+                    <a:fld id="{55D85FBB-F462-4664-BCE9-F480BB2251C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4574,13 +4592,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.272</c:v>
+                  <c:v>1.2829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58099999999999996</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7709999999999999</c:v>
+                  <c:v>2.6909999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,7 +4629,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.581</c:v>
+                    <c:v>0.491</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4716,7 +4734,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{4EDF8B11-A0AB-4F7C-A4BC-4C1BC8228D01}" type="CELLRANGE">
+                    <a:fld id="{E825318B-0E2B-4A93-A4CA-952C2F6C5309}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1200"/>
@@ -4893,13 +4911,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,7 +4948,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0000207</c:v>
+                    <c:v>0.000136</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5020,7 +5038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2038D378-26BF-4624-AB7D-AD8C757E920B}" type="CELLRANGE">
+                    <a:fld id="{9CC5899B-F4BE-4CAF-8B0C-0CA6C0A01C2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -5164,13 +5182,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17.221</c:v>
+                  <c:v>45.531999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.282</c:v>
+                  <c:v>6.9820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.22</c:v>
+                  <c:v>1910.931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,7 +5219,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>9.61E-09</c:v>
+                    <c:v>2.85E-09</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5296,20 +5314,21 @@
                     <a:pPr>
                       <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B998DCCA-9FBC-494D-82FD-FF0E037C5E65}" type="CELLRANGE">
+                    <a:fld id="{266D5B40-C3ED-4AE1-AD4E-97157B88EE79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -5333,10 +5352,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -5433,10 +5449,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5481,13 +5494,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.359</c:v>
+                  <c:v>2.883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89200000000000002</c:v>
+                  <c:v>1.3109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2549999999999999</c:v>
+                  <c:v>6.3920000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5518,7 +5531,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.0607</c:v>
+                    <c:v>0.00674</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5751,13 +5764,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.8330000000000002</c:v>
+                  <c:v>3.359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4259999999999999</c:v>
+                  <c:v>1.2410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.827</c:v>
+                  <c:v>10.644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5788,7 +5801,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.00193</c:v>
+                    <c:v>0.0127</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -8080,43 +8093,43 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="69.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="8.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="70.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="70.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>49</v>
       </c>
       <c r="D2">
@@ -8124,11 +8137,11 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>3.8699999999999997E-4</v>
       </c>
       <c r="D3">
@@ -8136,11 +8149,11 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>2.4239999999999999</v>
       </c>
       <c r="D4">
@@ -8148,11 +8161,11 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>7.7690000000000001</v>
       </c>
       <c r="D5">
@@ -8160,11 +8173,11 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>2.1429999999999998</v>
       </c>
       <c r="D6">
@@ -8172,11 +8185,11 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>35.447000000000003</v>
       </c>
       <c r="D7">
@@ -8184,14 +8197,14 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>45</v>
       </c>
       <c r="D8">
@@ -8199,11 +8212,11 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.71199999999999997</v>
       </c>
       <c r="D9">
@@ -8211,11 +8224,11 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>1.0669999999999999</v>
       </c>
       <c r="D10">
@@ -8223,11 +8236,11 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>1.1759999999999999</v>
       </c>
       <c r="D11">
@@ -8235,11 +8248,11 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>0.53300000000000003</v>
       </c>
       <c r="D12">
@@ -8247,11 +8260,11 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>2.573</v>
       </c>
       <c r="D13">
@@ -8259,14 +8272,14 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>39</v>
       </c>
       <c r="D14">
@@ -8274,11 +8287,11 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>3.96E-5</v>
       </c>
       <c r="D15">
@@ -8286,11 +8299,11 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0.32400000000000001</v>
       </c>
       <c r="D16">
@@ -8298,11 +8311,11 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0.14899999999999999</v>
       </c>
       <c r="D17">
@@ -8310,11 +8323,11 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D18">
@@ -8322,11 +8335,11 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0.42599999999999999</v>
       </c>
       <c r="D19">
@@ -8334,14 +8347,14 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>51</v>
       </c>
       <c r="D20">
@@ -8349,11 +8362,11 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>8.6099999999999997E-8</v>
       </c>
       <c r="D21">
@@ -8361,11 +8374,11 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>2.5099999999999998</v>
       </c>
       <c r="D22">
@@ -8373,11 +8386,11 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>13.151999999999999</v>
       </c>
       <c r="D23">
@@ -8385,11 +8398,11 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>4.3360000000000003</v>
       </c>
       <c r="D24">
@@ -8397,149 +8410,149 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>48.555</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>21</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>1.61</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>2.5840000000000001</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>0.92200000000000004</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>7.3369999999999997</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>133</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>2.5399999999999999E-4</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>1.2070000000000001</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>3.2810000000000001</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>1.6579999999999999</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>6.734</v>
       </c>
       <c r="D37">
@@ -8559,43 +8572,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="69.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="8.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="70.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="70.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>49</v>
       </c>
       <c r="D2">
@@ -8603,74 +8617,74 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>4.1199999999999999E-4</v>
+      <c r="C3" s="6">
+        <v>5.2400000000000005E-4</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2.41</v>
+      <c r="C4" s="7">
+        <v>2.2770000000000001</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>7.6980000000000004</v>
+      <c r="C5" s="6">
+        <v>8.5389999999999997</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>2.1230000000000002</v>
+      <c r="C6" s="6">
+        <v>2.1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>35.192999999999998</v>
+      <c r="C7" s="6">
+        <v>50.332999999999998</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>45</v>
       </c>
       <c r="D8">
@@ -8678,74 +8692,74 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0.71</v>
+      <c r="C9" s="6">
+        <v>0.56899999999999995</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1.079</v>
+      <c r="C10" s="6">
+        <v>1.087</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>1.2090000000000001</v>
+      <c r="C11" s="6">
+        <v>1.25</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0.54700000000000004</v>
+      <c r="C12" s="6">
+        <v>0.54900000000000004</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>2.6520000000000001</v>
+      <c r="C13" s="6">
+        <v>2.8370000000000002</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>39</v>
       </c>
       <c r="D14">
@@ -8753,74 +8767,74 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>3.6399999999999997E-5</v>
+      <c r="C15" s="6">
+        <v>1.13E-5</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>0.32200000000000001</v>
+      <c r="C16" s="6">
+        <v>0.31900000000000001</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.14599999999999999</v>
+      <c r="C17" s="6">
+        <v>0.11799999999999999</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>4.1000000000000002E-2</v>
+      <c r="C18" s="6">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>0.41799999999999998</v>
+      <c r="C19" s="6">
+        <v>0.35499999999999998</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>51</v>
       </c>
       <c r="D20">
@@ -8828,198 +8842,198 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>2.4900000000000001E-8</v>
+      <c r="C21" s="6">
+        <v>1.2799999999999999E-9</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>2.5979999999999999</v>
+      <c r="C22" s="6">
+        <v>2.633</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
-        <v>16.405000000000001</v>
+      <c r="C23" s="6">
+        <v>55.798000000000002</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>4.9989999999999997</v>
+      <c r="C24" s="6">
+        <v>8.2650000000000006</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>70.957999999999998</v>
+      <c r="C25" s="6">
+        <v>2373.6289999999999</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>21</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>4.7300000000000002E-2</v>
+      <c r="C27" s="6">
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1.61</v>
+      <c r="C28" s="6">
+        <v>1.734</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>2.593</v>
+      <c r="C29" s="6">
+        <v>3.0150000000000001</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0.92400000000000004</v>
+      <c r="C30" s="6">
+        <v>1.0580000000000001</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
-        <v>7.375</v>
+      <c r="C31" s="6">
+        <v>8.7219999999999995</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>133</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>6.9899999999999997E-4</v>
+      <c r="C33" s="6">
+        <v>3.0599999999999998E-3</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>1.1830000000000001</v>
+      <c r="C34" s="6">
+        <v>1.1160000000000001</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>3.0139999999999998</v>
+      <c r="C35" s="6">
+        <v>4.1639999999999997</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>1.512</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
-        <v>6.22</v>
+      <c r="C37" s="6">
+        <v>13.378</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -9035,468 +9049,468 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="69.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="8.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="70.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="70.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>50</v>
+      <c r="C2" s="6">
+        <v>69</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>4.8099999999999998E-4</v>
+      <c r="C3" s="6">
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2.3759999999999999</v>
+      <c r="C4" s="7">
+        <v>1.8779999999999999</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>7.5039999999999996</v>
+      <c r="C5" s="6">
+        <v>6.2469999999999999</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>2.0720000000000001</v>
+      <c r="C6" s="6">
+        <v>1.5920000000000001</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>34.234000000000002</v>
+      <c r="C7" s="6">
+        <v>35.970999999999997</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>46</v>
+      <c r="C8" s="6">
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0.58099999999999996</v>
+      <c r="C9" s="6">
+        <v>0.49099999999999999</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1.099</v>
+      <c r="C10" s="6">
+        <v>1.083</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>1.272</v>
+      <c r="C11" s="6">
+        <v>1.2829999999999999</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0.58099999999999996</v>
+      <c r="C12" s="6">
+        <v>0.61399999999999999</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>2.7709999999999999</v>
+      <c r="C13" s="6">
+        <v>2.6909999999999998</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>40</v>
+      <c r="C14" s="6">
+        <v>71</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>2.0699999999999998E-5</v>
+      <c r="C15" s="6">
+        <v>1.36E-4</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>0.316</v>
+      <c r="C16" s="6">
+        <v>0.60499999999999998</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.14199999999999999</v>
+      <c r="C17" s="6">
+        <v>0.251</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0.04</v>
+      <c r="C18" s="6">
+        <v>0.112</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>0.40500000000000003</v>
+      <c r="C19" s="6">
+        <v>0.54400000000000004</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>52</v>
+      <c r="C20" s="6">
+        <v>70</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>9.6099999999999997E-9</v>
+      <c r="C21" s="6">
+        <v>2.8499999999999999E-9</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>2.585</v>
+      <c r="C22" s="6">
+        <v>2.194</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
-        <v>17.221</v>
+      <c r="C23" s="6">
+        <v>45.531999999999996</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>5.282</v>
+      <c r="C24" s="6">
+        <v>6.9820000000000002</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>74.22</v>
+      <c r="C25" s="6">
+        <v>1910.931</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
-        <v>24</v>
+      <c r="C26" s="6">
+        <v>41</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>6.0699999999999997E-2</v>
+      <c r="C27" s="6">
+        <v>6.7400000000000003E-3</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1.536</v>
+      <c r="C28" s="6">
+        <v>1.5740000000000001</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>2.359</v>
+      <c r="C29" s="6">
+        <v>2.883</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>0.89200000000000002</v>
+      <c r="C30" s="6">
+        <v>1.3109999999999999</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
-        <v>6.2549999999999999</v>
+      <c r="C31" s="6">
+        <v>6.3920000000000003</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32">
-        <v>137</v>
+      <c r="C32" s="6">
+        <v>171</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>1.9300000000000001E-3</v>
+      <c r="C33" s="6">
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>1.1719999999999999</v>
+      <c r="C34" s="6">
+        <v>1.0840000000000001</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
-        <v>2.8330000000000002</v>
+      <c r="C35" s="6">
+        <v>3.359</v>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
-        <v>1.4259999999999999</v>
+      <c r="C36" s="6">
+        <v>1.2410000000000001</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
-        <v>5.827</v>
+      <c r="C37" s="6">
+        <v>10.644</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -9504,6 +9518,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>